--- a/Code/Results/Cases/Case_5_84/res_line/pl_mw.xlsx
+++ b/Code/Results/Cases/Case_5_84/res_line/pl_mw.xlsx
@@ -421,46 +421,46 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>1.068369369166589</v>
+        <v>0.7175764140683043</v>
       </c>
       <c r="C2">
-        <v>0.08559322712476103</v>
+        <v>0.06260135146113299</v>
       </c>
       <c r="D2">
-        <v>0.08990893150772195</v>
+        <v>0.1265557049413388</v>
       </c>
       <c r="E2">
-        <v>0.05386406375140496</v>
+        <v>0.1215562336816092</v>
       </c>
       <c r="F2">
-        <v>0.7916560312452319</v>
+        <v>1.73021218600249</v>
       </c>
       <c r="G2">
         <v>0</v>
       </c>
       <c r="H2">
-        <v>0.02672462365074526</v>
+        <v>0.07973214163530429</v>
       </c>
       <c r="I2">
-        <v>0.4541223333203845</v>
+        <v>1.091659938521513</v>
       </c>
       <c r="J2">
-        <v>0.05617735783312305</v>
+        <v>0.1506897988593927</v>
       </c>
       <c r="K2">
-        <v>0.9316584616862258</v>
+        <v>0.4423768351113608</v>
       </c>
       <c r="L2">
-        <v>0.2159778319163479</v>
+        <v>0.3010045715381438</v>
       </c>
       <c r="M2">
         <v>0</v>
       </c>
       <c r="N2">
-        <v>0.9678350383697838</v>
+        <v>2.031795384352302</v>
       </c>
       <c r="O2">
-        <v>1.993270086649488</v>
+        <v>4.502243148714513</v>
       </c>
     </row>
     <row r="3" spans="1:15">
@@ -468,46 +468,46 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>0.9327972576622869</v>
+        <v>0.6807713822727806</v>
       </c>
       <c r="C3">
-        <v>0.07907486567544453</v>
+        <v>0.06037733269530321</v>
       </c>
       <c r="D3">
-        <v>0.08112524898061224</v>
+        <v>0.1246814889617767</v>
       </c>
       <c r="E3">
-        <v>0.05172506495369156</v>
+        <v>0.1215706998980348</v>
       </c>
       <c r="F3">
-        <v>0.7762518741914235</v>
+        <v>1.736667472839336</v>
       </c>
       <c r="G3">
         <v>0</v>
       </c>
       <c r="H3">
-        <v>0.0267246236506935</v>
+        <v>0.07973214163530429</v>
       </c>
       <c r="I3">
-        <v>0.4577897765626844</v>
+        <v>1.099026108219665</v>
       </c>
       <c r="J3">
-        <v>0.05662927033262299</v>
+        <v>0.1515007563690016</v>
       </c>
       <c r="K3">
-        <v>0.8100747100969841</v>
+        <v>0.4075864759766432</v>
       </c>
       <c r="L3">
-        <v>0.195553404295346</v>
+        <v>0.2968883538699387</v>
       </c>
       <c r="M3">
         <v>0</v>
       </c>
       <c r="N3">
-        <v>1.009158230953632</v>
+        <v>2.050031960776155</v>
       </c>
       <c r="O3">
-        <v>1.978196087554934</v>
+        <v>4.526135960436832</v>
       </c>
     </row>
     <row r="4" spans="1:15">
@@ -515,46 +515,46 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>0.8498278981169847</v>
+        <v>0.6583985860095254</v>
       </c>
       <c r="C4">
-        <v>0.07506126979080818</v>
+        <v>0.05899572011682608</v>
       </c>
       <c r="D4">
-        <v>0.07578239177414048</v>
+        <v>0.123575017793577</v>
       </c>
       <c r="E4">
-        <v>0.05046249699161898</v>
+        <v>0.1216189954939235</v>
       </c>
       <c r="F4">
-        <v>0.7679644980670872</v>
+        <v>1.741356316376987</v>
       </c>
       <c r="G4">
         <v>0</v>
       </c>
       <c r="H4">
-        <v>0.0267246236506935</v>
+        <v>0.07973214163530429</v>
       </c>
       <c r="I4">
-        <v>0.4607426740469833</v>
+        <v>1.103977940612726</v>
       </c>
       <c r="J4">
-        <v>0.05696646217343648</v>
+        <v>0.1520419333066059</v>
       </c>
       <c r="K4">
-        <v>0.7355540401741507</v>
+        <v>0.3863210243411856</v>
       </c>
       <c r="L4">
-        <v>0.1831706773911321</v>
+        <v>0.2944776136466913</v>
       </c>
       <c r="M4">
         <v>0</v>
       </c>
       <c r="N4">
-        <v>1.035586501280497</v>
+        <v>2.061805402870661</v>
       </c>
       <c r="O4">
-        <v>1.97212587546781</v>
+        <v>4.542715322954678</v>
       </c>
     </row>
     <row r="5" spans="1:15">
@@ -562,46 +562,46 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>0.8160757379951349</v>
+        <v>0.649339002985954</v>
       </c>
       <c r="C5">
-        <v>0.07342235690463639</v>
+        <v>0.0584286818137727</v>
       </c>
       <c r="D5">
-        <v>0.07361710679011679</v>
+        <v>0.1231353322110706</v>
       </c>
       <c r="E5">
-        <v>0.04996038109022649</v>
+        <v>0.1216486175234337</v>
       </c>
       <c r="F5">
-        <v>0.7648714180410963</v>
+        <v>1.74344968060975</v>
       </c>
       <c r="G5">
         <v>0</v>
       </c>
       <c r="H5">
-        <v>0.0267246236506935</v>
+        <v>0.07973214163530429</v>
       </c>
       <c r="I5">
-        <v>0.4621170701976531</v>
+        <v>1.106103823857225</v>
       </c>
       <c r="J5">
-        <v>0.05711858808647285</v>
+        <v>0.1522733612967535</v>
       </c>
       <c r="K5">
-        <v>0.7052107061142721</v>
+        <v>0.3776799283748318</v>
       </c>
       <c r="L5">
-        <v>0.1781620072489645</v>
+        <v>0.2935246841261687</v>
       </c>
       <c r="M5">
         <v>0</v>
       </c>
       <c r="N5">
-        <v>1.046616684470012</v>
+        <v>2.066748110781893</v>
       </c>
       <c r="O5">
-        <v>1.970425556495442</v>
+        <v>4.549952074521855</v>
       </c>
     </row>
     <row r="6" spans="1:15">
@@ -609,46 +609,46 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>0.8104744704632481</v>
+        <v>0.6478381625347254</v>
       </c>
       <c r="C6">
-        <v>0.0731500009095285</v>
+        <v>0.05833428325509971</v>
       </c>
       <c r="D6">
-        <v>0.07325826642226474</v>
+        <v>0.1230630018802117</v>
       </c>
       <c r="E6">
-        <v>0.0498777427073076</v>
+        <v>0.1216541375554172</v>
       </c>
       <c r="F6">
-        <v>0.7643746795084922</v>
+        <v>1.743808319357775</v>
       </c>
       <c r="G6">
         <v>0</v>
       </c>
       <c r="H6">
-        <v>0.0267246236506935</v>
+        <v>0.07973214163530429</v>
       </c>
       <c r="I6">
-        <v>0.4623554710326125</v>
+        <v>1.106463349363704</v>
       </c>
       <c r="J6">
-        <v>0.05714472888379696</v>
+        <v>0.1523124482827214</v>
       </c>
       <c r="K6">
-        <v>0.7001734463515135</v>
+        <v>0.3762465938266644</v>
       </c>
       <c r="L6">
-        <v>0.1773325137865172</v>
+        <v>0.2933682346815871</v>
       </c>
       <c r="M6">
         <v>0</v>
       </c>
       <c r="N6">
-        <v>1.048463826159829</v>
+        <v>2.067577599368803</v>
       </c>
       <c r="O6">
-        <v>1.970189142710566</v>
+        <v>4.551182768170577</v>
       </c>
     </row>
     <row r="7" spans="1:15">
@@ -656,46 +656,46 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>0.8493724805311444</v>
+        <v>0.6582761714107335</v>
       </c>
       <c r="C7">
-        <v>0.07503918100113083</v>
+        <v>0.05898808909307718</v>
       </c>
       <c r="D7">
-        <v>0.07575314239593212</v>
+        <v>0.123569042557186</v>
       </c>
       <c r="E7">
-        <v>0.05045567560096487</v>
+        <v>0.1216193546950155</v>
       </c>
       <c r="F7">
-        <v>0.7679216467441492</v>
+        <v>1.741383808459858</v>
       </c>
       <c r="G7">
         <v>0</v>
       </c>
       <c r="H7">
-        <v>0.0267246236506935</v>
+        <v>0.07973214163530429</v>
       </c>
       <c r="I7">
-        <v>0.4607605237334305</v>
+        <v>1.10400617370999</v>
       </c>
       <c r="J7">
-        <v>0.05696845459136668</v>
+        <v>0.1520450102903297</v>
       </c>
       <c r="K7">
-        <v>0.7351447316963799</v>
+        <v>0.3862043864785392</v>
       </c>
       <c r="L7">
-        <v>0.1831029803135635</v>
+        <v>0.2944646426125317</v>
       </c>
       <c r="M7">
         <v>0</v>
       </c>
       <c r="N7">
-        <v>1.035734210092437</v>
+        <v>2.061871475033534</v>
       </c>
       <c r="O7">
-        <v>1.972099848765538</v>
+        <v>4.542810974055442</v>
       </c>
     </row>
     <row r="8" spans="1:15">
@@ -703,46 +703,46 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>1.02156134480353</v>
+        <v>0.7048396587181855</v>
       </c>
       <c r="C8">
-        <v>0.08334772867233653</v>
+        <v>0.06183785212274273</v>
       </c>
       <c r="D8">
-        <v>0.08686943741913211</v>
+        <v>0.1259003206745035</v>
       </c>
       <c r="E8">
-        <v>0.05311576201249046</v>
+        <v>0.1215530594235794</v>
       </c>
       <c r="F8">
-        <v>0.786095312518043</v>
+        <v>1.73228758511231</v>
       </c>
       <c r="G8">
         <v>0</v>
       </c>
       <c r="H8">
-        <v>0.0267246236506935</v>
+        <v>0.07973214163530429</v>
       </c>
       <c r="I8">
-        <v>0.4552381472699949</v>
+        <v>1.094110821374823</v>
       </c>
       <c r="J8">
-        <v>0.05632059972926839</v>
+        <v>0.1509604530448154</v>
       </c>
       <c r="K8">
-        <v>0.8897034549168268</v>
+        <v>0.430361559229226</v>
       </c>
       <c r="L8">
-        <v>0.208901265302444</v>
+        <v>0.2995611732831094</v>
       </c>
       <c r="M8">
         <v>0</v>
       </c>
       <c r="N8">
-        <v>0.9818610997014217</v>
+        <v>2.037963826068834</v>
       </c>
       <c r="O8">
-        <v>1.987394457512693</v>
+        <v>4.510085441440381</v>
       </c>
     </row>
     <row r="9" spans="1:15">
@@ -750,46 +750,46 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>1.361877383746616</v>
+        <v>0.7979118093728914</v>
       </c>
       <c r="C9">
-        <v>0.09957593394761943</v>
+        <v>0.06729829495389339</v>
       </c>
       <c r="D9">
-        <v>0.1091018652513753</v>
+        <v>0.1308207564181032</v>
       </c>
       <c r="E9">
-        <v>0.05875338555249243</v>
+        <v>0.1217345333304323</v>
       </c>
       <c r="F9">
-        <v>0.8315142386758154</v>
+        <v>1.720194683037604</v>
       </c>
       <c r="G9">
         <v>0</v>
       </c>
       <c r="H9">
-        <v>0.0267246236506935</v>
+        <v>0.07973214163530429</v>
       </c>
       <c r="I9">
-        <v>0.4502181924607278</v>
+        <v>1.078105420177213</v>
       </c>
       <c r="J9">
-        <v>0.05553807393674859</v>
+        <v>0.1491759215877551</v>
       </c>
       <c r="K9">
-        <v>1.194276802462042</v>
+        <v>0.5176924347111651</v>
       </c>
       <c r="L9">
-        <v>0.260857801491909</v>
+        <v>0.3104755802110901</v>
       </c>
       <c r="M9">
         <v>0</v>
       </c>
       <c r="N9">
-        <v>0.8848254156313544</v>
+        <v>1.995648494263376</v>
       </c>
       <c r="O9">
-        <v>2.043970666469534</v>
+        <v>4.461039308230568</v>
       </c>
     </row>
     <row r="10" spans="1:15">
@@ -797,46 +797,46 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>1.614272672203185</v>
+        <v>0.8673338054266537</v>
       </c>
       <c r="C10">
-        <v>0.1114972077142795</v>
+        <v>0.07123171116241167</v>
       </c>
       <c r="D10">
-        <v>0.125751232945106</v>
+        <v>0.1346452404174983</v>
       </c>
       <c r="E10">
-        <v>0.06317913438687839</v>
+        <v>0.1220561988202427</v>
       </c>
       <c r="F10">
-        <v>0.8715653338447567</v>
+        <v>1.714800182459761</v>
       </c>
       <c r="G10">
         <v>0</v>
       </c>
       <c r="H10">
-        <v>0.0267246236506935</v>
+        <v>0.07973214163530429</v>
       </c>
       <c r="I10">
-        <v>0.4504316303819778</v>
+        <v>1.068412909307177</v>
       </c>
       <c r="J10">
-        <v>0.05528116335320732</v>
+        <v>0.1480723474264458</v>
       </c>
       <c r="K10">
-        <v>1.419612331226233</v>
+        <v>0.5822807839025472</v>
       </c>
       <c r="L10">
-        <v>0.300031926406632</v>
+        <v>0.3190492983364095</v>
       </c>
       <c r="M10">
         <v>0</v>
       </c>
       <c r="N10">
-        <v>0.8191172132968862</v>
+        <v>1.967337844358982</v>
       </c>
       <c r="O10">
-        <v>2.103662035253393</v>
+        <v>4.434204547313044</v>
       </c>
     </row>
     <row r="11" spans="1:15">
@@ -844,46 +844,46 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>1.729785105657811</v>
+        <v>0.899135576376608</v>
       </c>
       <c r="C11">
-        <v>0.1169293282071209</v>
+        <v>0.07300404535129701</v>
       </c>
       <c r="D11">
-        <v>0.133405924576607</v>
+        <v>0.1364299241993621</v>
       </c>
       <c r="E11">
-        <v>0.06526047565303728</v>
+        <v>0.1222431084517908</v>
       </c>
       <c r="F11">
-        <v>0.8914054614201206</v>
+        <v>1.713101494637016</v>
       </c>
       <c r="G11">
         <v>0</v>
       </c>
       <c r="H11">
-        <v>0.0267246236506935</v>
+        <v>0.07973214163530429</v>
       </c>
       <c r="I11">
-        <v>0.4514603492857887</v>
+        <v>1.064451115026706</v>
       </c>
       <c r="J11">
-        <v>0.05523815284413658</v>
+        <v>0.1476151241629147</v>
       </c>
       <c r="K11">
-        <v>1.522620710800851</v>
+        <v>0.6117515525598378</v>
       </c>
       <c r="L11">
-        <v>0.3181106149065585</v>
+        <v>0.3230689841358014</v>
       </c>
       <c r="M11">
         <v>0</v>
       </c>
       <c r="N11">
-        <v>0.7905159692991468</v>
+        <v>1.955060619126502</v>
       </c>
       <c r="O11">
-        <v>2.135203894576506</v>
+        <v>4.423989558507316</v>
       </c>
     </row>
     <row r="12" spans="1:15">
@@ -891,46 +891,46 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>1.773642112130972</v>
+        <v>0.9112092156244387</v>
       </c>
       <c r="C12">
-        <v>0.1189884402564303</v>
+        <v>0.07367272454942508</v>
       </c>
       <c r="D12">
-        <v>0.1363172029512043</v>
+        <v>0.1371121303966021</v>
       </c>
       <c r="E12">
-        <v>0.06605895902251291</v>
+        <v>0.1223196930645365</v>
       </c>
       <c r="F12">
-        <v>0.8991663581331863</v>
+        <v>1.712566634326478</v>
       </c>
       <c r="G12">
         <v>0</v>
       </c>
       <c r="H12">
-        <v>0.0267246236506935</v>
+        <v>0.07973214163530429</v>
       </c>
       <c r="I12">
-        <v>0.4519913521651659</v>
+        <v>1.063015125392603</v>
       </c>
       <c r="J12">
-        <v>0.05523291213151893</v>
+        <v>0.147448408436226</v>
       </c>
       <c r="K12">
-        <v>1.56171308098854</v>
+        <v>0.6229236479439351</v>
       </c>
       <c r="L12">
-        <v>0.3249971239778091</v>
+        <v>0.3246081869732222</v>
       </c>
       <c r="M12">
         <v>0</v>
       </c>
       <c r="N12">
-        <v>0.7798780105367724</v>
+        <v>1.950497975728785</v>
       </c>
       <c r="O12">
-        <v>2.147818914160979</v>
+        <v>4.420407480748366</v>
       </c>
     </row>
     <row r="13" spans="1:15">
@@ -938,46 +938,46 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>1.764191362195561</v>
+        <v>0.9086075759588539</v>
       </c>
       <c r="C13">
-        <v>0.1185448677574215</v>
+        <v>0.07352882250290804</v>
       </c>
       <c r="D13">
-        <v>0.1356896296582164</v>
+        <v>0.136964922255487</v>
       </c>
       <c r="E13">
-        <v>0.06588652322058053</v>
+        <v>0.1223029414476464</v>
       </c>
       <c r="F13">
-        <v>0.897483640316409</v>
+        <v>1.712677008551012</v>
       </c>
       <c r="G13">
         <v>0</v>
       </c>
       <c r="H13">
-        <v>0.02672462365057982</v>
+        <v>0.07973214163530429</v>
       </c>
       <c r="I13">
-        <v>0.4518705761776687</v>
+        <v>1.063321534870624</v>
       </c>
       <c r="J13">
-        <v>0.0552335424769268</v>
+        <v>0.1474840281777077</v>
       </c>
       <c r="K13">
-        <v>1.553289825676103</v>
+        <v>0.62051700743109</v>
       </c>
       <c r="L13">
-        <v>0.3235121336379478</v>
+        <v>0.3242759367404346</v>
       </c>
       <c r="M13">
         <v>0</v>
       </c>
       <c r="N13">
-        <v>0.7821603943546718</v>
+        <v>1.951476776734062</v>
       </c>
       <c r="O13">
-        <v>2.145071549246495</v>
+        <v>4.42116622605721</v>
       </c>
     </row>
     <row r="14" spans="1:15">
@@ -985,46 +985,46 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>1.73339085582262</v>
+        <v>0.9001282654493821</v>
       </c>
       <c r="C14">
-        <v>0.1170986860935415</v>
+        <v>0.0730591075221696</v>
       </c>
       <c r="D14">
-        <v>0.1336451785220731</v>
+        <v>0.1364859221597072</v>
       </c>
       <c r="E14">
-        <v>0.06532595723601986</v>
+        <v>0.1222492929233105</v>
       </c>
       <c r="F14">
-        <v>0.8920388992330999</v>
+        <v>1.71305532017341</v>
       </c>
       <c r="G14">
         <v>0</v>
       </c>
       <c r="H14">
-        <v>0.02672462365057982</v>
+        <v>0.07973214163530429</v>
       </c>
       <c r="I14">
-        <v>0.4515011558759241</v>
+        <v>1.064331687948673</v>
       </c>
       <c r="J14">
-        <v>0.05523749777435327</v>
+        <v>0.1476012796947046</v>
       </c>
       <c r="K14">
-        <v>1.525835075007876</v>
+        <v>0.6126704478226088</v>
       </c>
       <c r="L14">
-        <v>0.3186763403287358</v>
+        <v>0.3231952746904341</v>
       </c>
       <c r="M14">
         <v>0</v>
       </c>
       <c r="N14">
-        <v>0.7896368727450076</v>
+        <v>1.954683514660035</v>
       </c>
       <c r="O14">
-        <v>2.136228059033726</v>
+        <v>4.42368912672697</v>
       </c>
     </row>
     <row r="15" spans="1:15">
@@ -1032,46 +1032,46 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>1.714540082852125</v>
+        <v>0.8949384551848141</v>
       </c>
       <c r="C15">
-        <v>0.116213153956366</v>
+        <v>0.07277107185009868</v>
       </c>
       <c r="D15">
-        <v>0.1323945662056047</v>
+        <v>0.1361933501617898</v>
       </c>
       <c r="E15">
-        <v>0.06498395550809022</v>
+        <v>0.122217186883482</v>
       </c>
       <c r="F15">
-        <v>0.8887365735419905</v>
+        <v>1.713301156931479</v>
       </c>
       <c r="G15">
         <v>0</v>
       </c>
       <c r="H15">
-        <v>0.02672462365057982</v>
+        <v>0.07973214163530429</v>
       </c>
       <c r="I15">
-        <v>0.451293525978997</v>
+        <v>1.064958801624407</v>
       </c>
       <c r="J15">
-        <v>0.05524137213388869</v>
+        <v>0.1476739358267487</v>
       </c>
       <c r="K15">
-        <v>1.509029765343797</v>
+        <v>0.6078657664536991</v>
       </c>
       <c r="L15">
-        <v>0.3157196557092306</v>
+        <v>0.3225355522062898</v>
       </c>
       <c r="M15">
         <v>0</v>
       </c>
       <c r="N15">
-        <v>0.7942417508616408</v>
+        <v>1.956658995630477</v>
       </c>
       <c r="O15">
-        <v>2.130899748205223</v>
+        <v>4.425271726103773</v>
       </c>
     </row>
     <row r="16" spans="1:15">
@@ -1079,46 +1079,46 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>1.606738921374273</v>
+        <v>0.8652598680455412</v>
       </c>
       <c r="C16">
-        <v>0.1111424538262895</v>
+        <v>0.07111554112843521</v>
       </c>
       <c r="D16">
-        <v>0.1252526904265636</v>
+        <v>0.1345295045895085</v>
       </c>
       <c r="E16">
-        <v>0.06304452852084097</v>
+        <v>0.1220447979175852</v>
       </c>
       <c r="F16">
-        <v>0.8703025934333866</v>
+        <v>1.714926375845977</v>
       </c>
       <c r="G16">
         <v>0</v>
       </c>
       <c r="H16">
-        <v>0.02672462365057982</v>
+        <v>0.07973214163530429</v>
       </c>
       <c r="I16">
-        <v>0.4503837773094901</v>
+        <v>1.068680817716825</v>
       </c>
       <c r="J16">
-        <v>0.05528549624808576</v>
+        <v>0.1481031280300371</v>
       </c>
       <c r="K16">
-        <v>1.412891697159125</v>
+        <v>0.5803565373995241</v>
       </c>
       <c r="L16">
-        <v>0.2988559206323629</v>
+        <v>0.3187889940111859</v>
       </c>
       <c r="M16">
         <v>0</v>
       </c>
       <c r="N16">
-        <v>0.8210129346751662</v>
+        <v>1.968152291344629</v>
       </c>
       <c r="O16">
-        <v>2.101692345627868</v>
+        <v>4.434912178916392</v>
       </c>
     </row>
     <row r="17" spans="1:15">
@@ -1126,46 +1126,46 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>1.540795019657338</v>
+        <v>0.8471091189436208</v>
       </c>
       <c r="C17">
-        <v>0.1080346041121061</v>
+        <v>0.07009555834892467</v>
       </c>
       <c r="D17">
-        <v>0.1208927658451984</v>
+        <v>0.1335202394497941</v>
       </c>
       <c r="E17">
-        <v>0.06187255529419744</v>
+        <v>0.121949415847002</v>
       </c>
       <c r="F17">
-        <v>0.8594193024569066</v>
+        <v>1.716116691881311</v>
       </c>
       <c r="G17">
         <v>0</v>
       </c>
       <c r="H17">
-        <v>0.02672462365057982</v>
+        <v>0.07973214163530429</v>
       </c>
       <c r="I17">
-        <v>0.4500694715039053</v>
+        <v>1.071078683646231</v>
       </c>
       <c r="J17">
-        <v>0.05533177721859417</v>
+        <v>0.1483778852201816</v>
       </c>
       <c r="K17">
-        <v>1.354051771942522</v>
+        <v>0.5635028854035511</v>
       </c>
       <c r="L17">
-        <v>0.2885790277125579</v>
+        <v>0.3165210964287866</v>
       </c>
       <c r="M17">
         <v>0</v>
       </c>
       <c r="N17">
-        <v>0.837771546977069</v>
+        <v>1.975357089230475</v>
       </c>
       <c r="O17">
-        <v>2.084925978180422</v>
+        <v>4.441336291064658</v>
       </c>
     </row>
     <row r="18" spans="1:15">
@@ -1173,46 +1173,46 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>1.502930451129345</v>
+        <v>0.8366901730229301</v>
       </c>
       <c r="C18">
-        <v>0.1062478548565764</v>
+        <v>0.06950729270347722</v>
       </c>
       <c r="D18">
-        <v>0.1183925959351342</v>
+        <v>0.1329439680076518</v>
       </c>
       <c r="E18">
-        <v>0.06120483797169385</v>
+        <v>0.1218983761833776</v>
       </c>
       <c r="F18">
-        <v>0.8533111285965802</v>
+        <v>1.716872435212309</v>
       </c>
       <c r="G18">
         <v>0</v>
       </c>
       <c r="H18">
-        <v>0.02672462365057982</v>
+        <v>0.07973214163530429</v>
       </c>
       <c r="I18">
-        <v>0.4499759061741138</v>
+        <v>1.072499986548291</v>
       </c>
       <c r="J18">
-        <v>0.05536532190604149</v>
+        <v>0.1485401359223673</v>
       </c>
       <c r="K18">
-        <v>1.320255026795621</v>
+        <v>0.5538175471358215</v>
       </c>
       <c r="L18">
-        <v>0.2826921176652064</v>
+        <v>0.3152279142669414</v>
       </c>
       <c r="M18">
         <v>0</v>
       </c>
       <c r="N18">
-        <v>0.8475315959063892</v>
+        <v>1.979557708396453</v>
       </c>
       <c r="O18">
-        <v>2.075692896911391</v>
+        <v>4.445218815248211</v>
       </c>
     </row>
     <row r="19" spans="1:15">
@@ -1220,46 +1220,46 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>1.490120822600858</v>
+        <v>0.8331661093080243</v>
       </c>
       <c r="C19">
-        <v>0.1056430074843888</v>
+        <v>0.06930784216150698</v>
       </c>
       <c r="D19">
-        <v>0.1175473476826028</v>
+        <v>0.1327495813106481</v>
       </c>
       <c r="E19">
-        <v>0.06097983859168465</v>
+        <v>0.1218817522960265</v>
       </c>
       <c r="F19">
-        <v>0.8512686076021012</v>
+        <v>1.717140535827468</v>
       </c>
       <c r="G19">
         <v>0</v>
       </c>
       <c r="H19">
-        <v>0.02672462365057982</v>
+        <v>0.07973214163530429</v>
       </c>
       <c r="I19">
-        <v>0.4499589850880632</v>
+        <v>1.072988450718302</v>
       </c>
       <c r="J19">
-        <v>0.05537785638487236</v>
+        <v>0.1485957961275446</v>
       </c>
       <c r="K19">
-        <v>1.308819617363696</v>
+        <v>0.5505397274983466</v>
       </c>
       <c r="L19">
-        <v>0.280702948607555</v>
+        <v>0.3147920019942916</v>
       </c>
       <c r="M19">
         <v>0</v>
       </c>
       <c r="N19">
-        <v>0.8508567381467058</v>
+        <v>1.980989689031119</v>
       </c>
       <c r="O19">
-        <v>2.072636062604744</v>
+        <v>4.446565593524383</v>
       </c>
     </row>
     <row r="20" spans="1:15">
@@ -1267,46 +1267,46 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>1.547808068678307</v>
+        <v>0.8490391416893317</v>
       </c>
       <c r="C20">
-        <v>0.1083653513759231</v>
+        <v>0.07020430285152202</v>
       </c>
       <c r="D20">
-        <v>0.1213560995491463</v>
+        <v>0.1336272400613865</v>
       </c>
       <c r="E20">
-        <v>0.06199665069386029</v>
+        <v>0.1219591741272623</v>
       </c>
       <c r="F20">
-        <v>0.8605620521039512</v>
+        <v>1.715982623160357</v>
       </c>
       <c r="G20">
         <v>0</v>
       </c>
       <c r="H20">
-        <v>0.02672462365057982</v>
+        <v>0.07973214163530429</v>
       </c>
       <c r="I20">
-        <v>0.4500938506903616</v>
+        <v>1.070819068654519</v>
       </c>
       <c r="J20">
-        <v>0.05532613080487536</v>
+        <v>0.1483482004634951</v>
       </c>
       <c r="K20">
-        <v>1.360310485508819</v>
+        <v>0.5652961171444133</v>
       </c>
       <c r="L20">
-        <v>0.2896705038219238</v>
+        <v>0.3167613544371761</v>
       </c>
       <c r="M20">
         <v>0</v>
       </c>
       <c r="N20">
-        <v>0.8359749962881029</v>
+        <v>1.974584267353027</v>
       </c>
       <c r="O20">
-        <v>2.086668021831542</v>
+        <v>4.440633025860592</v>
       </c>
     </row>
     <row r="21" spans="1:15">
@@ -1314,46 +1314,46 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>1.742434468468275</v>
+        <v>0.9026180098211114</v>
       </c>
       <c r="C21">
-        <v>0.1175234015584721</v>
+        <v>0.07319714127551435</v>
       </c>
       <c r="D21">
-        <v>0.1342453328632445</v>
+        <v>0.1366264433845572</v>
       </c>
       <c r="E21">
-        <v>0.06549032438911695</v>
+        <v>0.1222648934590502</v>
       </c>
       <c r="F21">
-        <v>0.8936313018996742</v>
+        <v>1.712941260759251</v>
       </c>
       <c r="G21">
         <v>0</v>
       </c>
       <c r="H21">
-        <v>0.02672462365057982</v>
+        <v>0.07973214163530429</v>
       </c>
       <c r="I21">
-        <v>0.4516057627858956</v>
+        <v>1.064033238225079</v>
       </c>
       <c r="J21">
-        <v>0.05523603269552169</v>
+        <v>0.147566665851226</v>
       </c>
       <c r="K21">
-        <v>1.533896775763964</v>
+        <v>0.6149748480657706</v>
       </c>
       <c r="L21">
-        <v>0.3200956028592685</v>
+        <v>0.3235122301432654</v>
       </c>
       <c r="M21">
         <v>0</v>
       </c>
       <c r="N21">
-        <v>0.7874355597608966</v>
+        <v>1.953739271147358</v>
       </c>
       <c r="O21">
-        <v>2.138807071433348</v>
+        <v>4.422940327466222</v>
       </c>
     </row>
     <row r="22" spans="1:15">
@@ -1361,46 +1361,46 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>1.870311709973549</v>
+        <v>0.9378151957427292</v>
       </c>
       <c r="C22">
-        <v>0.1235212831189614</v>
+        <v>0.07513875468755771</v>
       </c>
       <c r="D22">
-        <v>0.1427432134154145</v>
+        <v>0.1386237802673804</v>
       </c>
       <c r="E22">
-        <v>0.06783409529954554</v>
+        <v>0.1224985267142067</v>
       </c>
       <c r="F22">
-        <v>0.9166962929093216</v>
+        <v>1.71158526910807</v>
       </c>
       <c r="G22">
         <v>0</v>
       </c>
       <c r="H22">
-        <v>0.02672462365057982</v>
+        <v>0.07973214163530429</v>
       </c>
       <c r="I22">
-        <v>0.4534221645940875</v>
+        <v>1.059972802920917</v>
       </c>
       <c r="J22">
-        <v>0.05524175110802076</v>
+        <v>0.1470933285653508</v>
       </c>
       <c r="K22">
-        <v>1.647849587548222</v>
+        <v>0.6475133061063048</v>
       </c>
       <c r="L22">
-        <v>0.3402179644534868</v>
+        <v>0.3280235446549256</v>
       </c>
       <c r="M22">
         <v>0</v>
       </c>
       <c r="N22">
-        <v>0.756839181982202</v>
+        <v>1.940619902947994</v>
       </c>
       <c r="O22">
-        <v>2.176813195415946</v>
+        <v>4.413044662448925</v>
       </c>
     </row>
     <row r="23" spans="1:15">
@@ -1408,46 +1408,46 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>1.801994064552417</v>
+        <v>0.9190135728767928</v>
       </c>
       <c r="C23">
-        <v>0.1203186764655726</v>
+        <v>0.07410380181411824</v>
       </c>
       <c r="D23">
-        <v>0.1382006178563415</v>
+        <v>0.137554385544064</v>
       </c>
       <c r="E23">
-        <v>0.06657746252649588</v>
+        <v>0.122370746791745</v>
       </c>
       <c r="F23">
-        <v>0.904248048359932</v>
+        <v>1.712251256486269</v>
       </c>
       <c r="G23">
         <v>0</v>
       </c>
       <c r="H23">
-        <v>0.02672462365057982</v>
+        <v>0.07973214163530429</v>
       </c>
       <c r="I23">
-        <v>0.4523743366105322</v>
+        <v>1.062105692332565</v>
       </c>
       <c r="J23">
-        <v>0.05523264074843581</v>
+        <v>0.1473425373864004</v>
       </c>
       <c r="K23">
-        <v>1.586980121824041</v>
+        <v>0.6301406870295807</v>
       </c>
       <c r="L23">
-        <v>0.3294553505156017</v>
+        <v>0.325606739170837</v>
       </c>
       <c r="M23">
         <v>0</v>
       </c>
       <c r="N23">
-        <v>0.7730634196894526</v>
+        <v>1.947575839347238</v>
       </c>
       <c r="O23">
-        <v>2.156155181863653</v>
+        <v>4.418173707699594</v>
       </c>
     </row>
     <row r="24" spans="1:15">
@@ -1455,46 +1455,46 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>1.544637322497863</v>
+        <v>0.8481665280012294</v>
       </c>
       <c r="C24">
-        <v>0.1082158206117896</v>
+        <v>0.07015514526635513</v>
       </c>
       <c r="D24">
-        <v>0.121146606493781</v>
+        <v>0.1335788527191255</v>
       </c>
       <c r="E24">
-        <v>0.06194052831081009</v>
+        <v>0.1219547505803078</v>
       </c>
       <c r="F24">
-        <v>0.860044952697379</v>
+        <v>1.716043013161709</v>
       </c>
       <c r="G24">
         <v>0</v>
       </c>
       <c r="H24">
-        <v>0.02672462365057982</v>
+        <v>0.07973214163530429</v>
       </c>
       <c r="I24">
-        <v>0.45008255802016</v>
+        <v>1.070936307461103</v>
       </c>
       <c r="J24">
-        <v>0.05532866197285102</v>
+        <v>0.1483616075806005</v>
       </c>
       <c r="K24">
-        <v>1.357480825181284</v>
+        <v>0.5644853844059128</v>
       </c>
       <c r="L24">
-        <v>0.2891769810303373</v>
+        <v>0.3166527005693496</v>
       </c>
       <c r="M24">
         <v>0</v>
       </c>
       <c r="N24">
-        <v>0.836786827117959</v>
+        <v>1.974933477945167</v>
       </c>
       <c r="O24">
-        <v>2.085879181885247</v>
+        <v>4.440950382634668</v>
       </c>
     </row>
     <row r="25" spans="1:15">
@@ -1502,46 +1502,46 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>1.269454332014533</v>
+        <v>0.7725480598081447</v>
       </c>
       <c r="C25">
-        <v>0.09518896177912239</v>
+        <v>0.06583483573536597</v>
       </c>
       <c r="D25">
-        <v>0.1030359090767803</v>
+        <v>0.1294526370642046</v>
       </c>
       <c r="E25">
-        <v>0.05718046396276755</v>
+        <v>0.1216522541747906</v>
       </c>
       <c r="F25">
-        <v>0.8181083006248073</v>
+        <v>1.722852358993542</v>
       </c>
       <c r="G25">
         <v>0</v>
       </c>
       <c r="H25">
-        <v>0.02672462365057982</v>
+        <v>0.07973214163530429</v>
       </c>
       <c r="I25">
-        <v>0.4509183209480732</v>
+        <v>1.082071969781506</v>
       </c>
       <c r="J25">
-        <v>0.0556954768441571</v>
+        <v>0.1496221594906757</v>
       </c>
       <c r="K25">
-        <v>1.111657000952363</v>
+        <v>0.4939905093785342</v>
       </c>
       <c r="L25">
-        <v>0.2466390764719648</v>
+        <v>0.3074250612130527</v>
       </c>
       <c r="M25">
         <v>0</v>
       </c>
       <c r="N25">
-        <v>0.9101209973046256</v>
+        <v>2.006607566224635</v>
       </c>
       <c r="O25">
-        <v>2.025627817655675</v>
+        <v>4.472690388618958</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_5_84/res_line/pl_mw.xlsx
+++ b/Code/Results/Cases/Case_5_84/res_line/pl_mw.xlsx
@@ -421,46 +421,46 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>0.7175764140683043</v>
+        <v>1.068369369166561</v>
       </c>
       <c r="C2">
-        <v>0.06260135146113299</v>
+        <v>0.08559322712468287</v>
       </c>
       <c r="D2">
-        <v>0.1265557049413388</v>
+        <v>0.08990893150776458</v>
       </c>
       <c r="E2">
-        <v>0.1215562336816092</v>
+        <v>0.05386406375140318</v>
       </c>
       <c r="F2">
-        <v>1.73021218600249</v>
+        <v>0.7916560312452248</v>
       </c>
       <c r="G2">
         <v>0</v>
       </c>
       <c r="H2">
-        <v>0.07973214163530429</v>
+        <v>0.02672462365074526</v>
       </c>
       <c r="I2">
-        <v>1.091659938521513</v>
+        <v>0.4541223333204165</v>
       </c>
       <c r="J2">
-        <v>0.1506897988593927</v>
+        <v>0.05617735783305555</v>
       </c>
       <c r="K2">
-        <v>0.4423768351113608</v>
+        <v>0.9316584616861689</v>
       </c>
       <c r="L2">
-        <v>0.3010045715381438</v>
+        <v>0.2159778319163479</v>
       </c>
       <c r="M2">
         <v>0</v>
       </c>
       <c r="N2">
-        <v>2.031795384352302</v>
+        <v>0.9678350383697207</v>
       </c>
       <c r="O2">
-        <v>4.502243148714513</v>
+        <v>1.993270086649432</v>
       </c>
     </row>
     <row r="3" spans="1:15">
@@ -468,46 +468,46 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>0.6807713822727806</v>
+        <v>0.9327972576622869</v>
       </c>
       <c r="C3">
-        <v>0.06037733269530321</v>
+        <v>0.07907486567535216</v>
       </c>
       <c r="D3">
-        <v>0.1246814889617767</v>
+        <v>0.08112524898032802</v>
       </c>
       <c r="E3">
-        <v>0.1215706998980348</v>
+        <v>0.05172506495369156</v>
       </c>
       <c r="F3">
-        <v>1.736667472839336</v>
+        <v>0.7762518741914306</v>
       </c>
       <c r="G3">
         <v>0</v>
       </c>
       <c r="H3">
-        <v>0.07973214163530429</v>
+        <v>0.0267246236506935</v>
       </c>
       <c r="I3">
-        <v>1.099026108219665</v>
+        <v>0.4577897765626879</v>
       </c>
       <c r="J3">
-        <v>0.1515007563690016</v>
+        <v>0.05662927033265319</v>
       </c>
       <c r="K3">
-        <v>0.4075864759766432</v>
+        <v>0.8100747100970977</v>
       </c>
       <c r="L3">
-        <v>0.2968883538699387</v>
+        <v>0.1955534042953815</v>
       </c>
       <c r="M3">
         <v>0</v>
       </c>
       <c r="N3">
-        <v>2.050031960776155</v>
+        <v>1.009158230953649</v>
       </c>
       <c r="O3">
-        <v>4.526135960436832</v>
+        <v>1.978196087555077</v>
       </c>
     </row>
     <row r="4" spans="1:15">
@@ -515,46 +515,46 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>0.6583985860095254</v>
+        <v>0.8498278981170131</v>
       </c>
       <c r="C4">
-        <v>0.05899572011682608</v>
+        <v>0.07506126979070871</v>
       </c>
       <c r="D4">
-        <v>0.123575017793577</v>
+        <v>0.07578239177441048</v>
       </c>
       <c r="E4">
-        <v>0.1216189954939235</v>
+        <v>0.050462496991587</v>
       </c>
       <c r="F4">
-        <v>1.741356316376987</v>
+        <v>0.7679644980670801</v>
       </c>
       <c r="G4">
         <v>0</v>
       </c>
       <c r="H4">
-        <v>0.07973214163530429</v>
+        <v>0.0267246236506935</v>
       </c>
       <c r="I4">
-        <v>1.103977940612726</v>
+        <v>0.4607426740469691</v>
       </c>
       <c r="J4">
-        <v>0.1520419333066059</v>
+        <v>0.05696646217339207</v>
       </c>
       <c r="K4">
-        <v>0.3863210243411856</v>
+        <v>0.7355540401741223</v>
       </c>
       <c r="L4">
-        <v>0.2944776136466913</v>
+        <v>0.1831706773910184</v>
       </c>
       <c r="M4">
         <v>0</v>
       </c>
       <c r="N4">
-        <v>2.061805402870661</v>
+        <v>1.035586501280499</v>
       </c>
       <c r="O4">
-        <v>4.542715322954678</v>
+        <v>1.972125875467839</v>
       </c>
     </row>
     <row r="5" spans="1:15">
@@ -562,46 +562,46 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>0.649339002985954</v>
+        <v>0.8160757379950212</v>
       </c>
       <c r="C5">
-        <v>0.0584286818137727</v>
+        <v>0.07342235690502008</v>
       </c>
       <c r="D5">
-        <v>0.1231353322110706</v>
+        <v>0.0736171067899889</v>
       </c>
       <c r="E5">
-        <v>0.1216486175234337</v>
+        <v>0.04996038109019452</v>
       </c>
       <c r="F5">
-        <v>1.74344968060975</v>
+        <v>0.7648714180411034</v>
       </c>
       <c r="G5">
         <v>0</v>
       </c>
       <c r="H5">
-        <v>0.07973214163530429</v>
+        <v>0.0267246236506935</v>
       </c>
       <c r="I5">
-        <v>1.106103823857225</v>
+        <v>0.4621170701976638</v>
       </c>
       <c r="J5">
-        <v>0.1522733612967535</v>
+        <v>0.05711858808648351</v>
       </c>
       <c r="K5">
-        <v>0.3776799283748318</v>
+        <v>0.7052107061141584</v>
       </c>
       <c r="L5">
-        <v>0.2935246841261687</v>
+        <v>0.1781620072490071</v>
       </c>
       <c r="M5">
         <v>0</v>
       </c>
       <c r="N5">
-        <v>2.066748110781893</v>
+        <v>1.046616684470028</v>
       </c>
       <c r="O5">
-        <v>4.549952074521855</v>
+        <v>1.970425556495513</v>
       </c>
     </row>
     <row r="6" spans="1:15">
@@ -609,46 +609,46 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>0.6478381625347254</v>
+        <v>0.8104744704632481</v>
       </c>
       <c r="C6">
-        <v>0.05833428325509971</v>
+        <v>0.0731500009095285</v>
       </c>
       <c r="D6">
-        <v>0.1230630018802117</v>
+        <v>0.07325826642219369</v>
       </c>
       <c r="E6">
-        <v>0.1216541375554172</v>
+        <v>0.04987774270731471</v>
       </c>
       <c r="F6">
-        <v>1.743808319357775</v>
+        <v>0.7643746795084851</v>
       </c>
       <c r="G6">
         <v>0</v>
       </c>
       <c r="H6">
-        <v>0.07973214163530429</v>
+        <v>0.0267246236506935</v>
       </c>
       <c r="I6">
-        <v>1.106463349363704</v>
+        <v>0.462355471032609</v>
       </c>
       <c r="J6">
-        <v>0.1523124482827214</v>
+        <v>0.05714472888380229</v>
       </c>
       <c r="K6">
-        <v>0.3762465938266644</v>
+        <v>0.7001734463514282</v>
       </c>
       <c r="L6">
-        <v>0.2933682346815871</v>
+        <v>0.1773325137865456</v>
       </c>
       <c r="M6">
         <v>0</v>
       </c>
       <c r="N6">
-        <v>2.067577599368803</v>
+        <v>1.048463826159845</v>
       </c>
       <c r="O6">
-        <v>4.551182768170577</v>
+        <v>1.970189142710538</v>
       </c>
     </row>
     <row r="7" spans="1:15">
@@ -656,46 +656,46 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>0.6582761714107335</v>
+        <v>0.8493724805310308</v>
       </c>
       <c r="C7">
-        <v>0.05898808909307718</v>
+        <v>0.07503918100088924</v>
       </c>
       <c r="D7">
-        <v>0.123569042557186</v>
+        <v>0.07575314239588948</v>
       </c>
       <c r="E7">
-        <v>0.1216193546950155</v>
+        <v>0.05045567560097908</v>
       </c>
       <c r="F7">
-        <v>1.741383808459858</v>
+        <v>0.767921646744135</v>
       </c>
       <c r="G7">
         <v>0</v>
       </c>
       <c r="H7">
-        <v>0.07973214163530429</v>
+        <v>0.0267246236506935</v>
       </c>
       <c r="I7">
-        <v>1.10400617370999</v>
+        <v>0.460760523733434</v>
       </c>
       <c r="J7">
-        <v>0.1520450102903297</v>
+        <v>0.05696845459135602</v>
       </c>
       <c r="K7">
-        <v>0.3862043864785392</v>
+        <v>0.7351447316962663</v>
       </c>
       <c r="L7">
-        <v>0.2944646426125317</v>
+        <v>0.1831029803135849</v>
       </c>
       <c r="M7">
         <v>0</v>
       </c>
       <c r="N7">
-        <v>2.061871475033534</v>
+        <v>1.035734210092429</v>
       </c>
       <c r="O7">
-        <v>4.542810974055442</v>
+        <v>1.972099848765453</v>
       </c>
     </row>
     <row r="8" spans="1:15">
@@ -703,46 +703,46 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>0.7048396587181855</v>
+        <v>1.02156134480353</v>
       </c>
       <c r="C8">
-        <v>0.06183785212274273</v>
+        <v>0.08334772867233653</v>
       </c>
       <c r="D8">
-        <v>0.1259003206745035</v>
+        <v>0.08686943741929554</v>
       </c>
       <c r="E8">
-        <v>0.1215530594235794</v>
+        <v>0.0531157620124727</v>
       </c>
       <c r="F8">
-        <v>1.73228758511231</v>
+        <v>0.7860953125180288</v>
       </c>
       <c r="G8">
         <v>0</v>
       </c>
       <c r="H8">
-        <v>0.07973214163530429</v>
+        <v>0.0267246236506935</v>
       </c>
       <c r="I8">
-        <v>1.094110821374823</v>
+        <v>0.4552381472699807</v>
       </c>
       <c r="J8">
-        <v>0.1509604530448154</v>
+        <v>0.05632059972920089</v>
       </c>
       <c r="K8">
-        <v>0.430361559229226</v>
+        <v>0.8897034549168268</v>
       </c>
       <c r="L8">
-        <v>0.2995611732831094</v>
+        <v>0.2089012653024724</v>
       </c>
       <c r="M8">
         <v>0</v>
       </c>
       <c r="N8">
-        <v>2.037963826068834</v>
+        <v>0.9818610997014412</v>
       </c>
       <c r="O8">
-        <v>4.510085441440381</v>
+        <v>1.987394457512636</v>
       </c>
     </row>
     <row r="9" spans="1:15">
@@ -750,46 +750,46 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>0.7979118093728914</v>
+        <v>1.361877383746616</v>
       </c>
       <c r="C9">
-        <v>0.06729829495389339</v>
+        <v>0.09957593394720021</v>
       </c>
       <c r="D9">
-        <v>0.1308207564181032</v>
+        <v>0.1091018652511906</v>
       </c>
       <c r="E9">
-        <v>0.1217345333304323</v>
+        <v>0.05875338555250842</v>
       </c>
       <c r="F9">
-        <v>1.720194683037604</v>
+        <v>0.8315142386758225</v>
       </c>
       <c r="G9">
         <v>0</v>
       </c>
       <c r="H9">
-        <v>0.07973214163530429</v>
+        <v>0.0267246236506935</v>
       </c>
       <c r="I9">
-        <v>1.078105420177213</v>
+        <v>0.4502181924607349</v>
       </c>
       <c r="J9">
-        <v>0.1491759215877551</v>
+        <v>0.05553807393669175</v>
       </c>
       <c r="K9">
-        <v>0.5176924347111651</v>
+        <v>1.194276802462156</v>
       </c>
       <c r="L9">
-        <v>0.3104755802110901</v>
+        <v>0.260857801491909</v>
       </c>
       <c r="M9">
         <v>0</v>
       </c>
       <c r="N9">
-        <v>1.995648494263376</v>
+        <v>0.8848254156313589</v>
       </c>
       <c r="O9">
-        <v>4.461039308230568</v>
+        <v>2.043970666469676</v>
       </c>
     </row>
     <row r="10" spans="1:15">
@@ -797,46 +797,46 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>0.8673338054266537</v>
+        <v>1.614272672203299</v>
       </c>
       <c r="C10">
-        <v>0.07123171116241167</v>
+        <v>0.1114972077143648</v>
       </c>
       <c r="D10">
-        <v>0.1346452404174983</v>
+        <v>0.1257512329449924</v>
       </c>
       <c r="E10">
-        <v>0.1220561988202427</v>
+        <v>0.0631791343868926</v>
       </c>
       <c r="F10">
-        <v>1.714800182459761</v>
+        <v>0.8715653338447282</v>
       </c>
       <c r="G10">
         <v>0</v>
       </c>
       <c r="H10">
-        <v>0.07973214163530429</v>
+        <v>0.0267246236506935</v>
       </c>
       <c r="I10">
-        <v>1.068412909307177</v>
+        <v>0.4504316303819778</v>
       </c>
       <c r="J10">
-        <v>0.1480723474264458</v>
+        <v>0.05528116335320377</v>
       </c>
       <c r="K10">
-        <v>0.5822807839025472</v>
+        <v>1.419612331226404</v>
       </c>
       <c r="L10">
-        <v>0.3190492983364095</v>
+        <v>0.3000319264066178</v>
       </c>
       <c r="M10">
         <v>0</v>
       </c>
       <c r="N10">
-        <v>1.967337844358982</v>
+        <v>0.8191172132969395</v>
       </c>
       <c r="O10">
-        <v>4.434204547313044</v>
+        <v>2.10366203525345</v>
       </c>
     </row>
     <row r="11" spans="1:15">
@@ -844,46 +844,46 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>0.899135576376608</v>
+        <v>1.729785105657925</v>
       </c>
       <c r="C11">
-        <v>0.07300404535129701</v>
+        <v>0.1169293282068793</v>
       </c>
       <c r="D11">
-        <v>0.1364299241993621</v>
+        <v>0.133405924576536</v>
       </c>
       <c r="E11">
-        <v>0.1222431084517908</v>
+        <v>0.06526047565301241</v>
       </c>
       <c r="F11">
-        <v>1.713101494637016</v>
+        <v>0.8914054614201206</v>
       </c>
       <c r="G11">
         <v>0</v>
       </c>
       <c r="H11">
-        <v>0.07973214163530429</v>
+        <v>0.0267246236506935</v>
       </c>
       <c r="I11">
-        <v>1.064451115026706</v>
+        <v>0.4514603492858029</v>
       </c>
       <c r="J11">
-        <v>0.1476151241629147</v>
+        <v>0.05523815284415079</v>
       </c>
       <c r="K11">
-        <v>0.6117515525598378</v>
+        <v>1.522620710800766</v>
       </c>
       <c r="L11">
-        <v>0.3230689841358014</v>
+        <v>0.3181106149065158</v>
       </c>
       <c r="M11">
         <v>0</v>
       </c>
       <c r="N11">
-        <v>1.955060619126502</v>
+        <v>0.7905159692991699</v>
       </c>
       <c r="O11">
-        <v>4.423989558507316</v>
+        <v>2.135203894576563</v>
       </c>
     </row>
     <row r="12" spans="1:15">
@@ -891,46 +891,46 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>0.9112092156244387</v>
+        <v>1.773642112130915</v>
       </c>
       <c r="C12">
-        <v>0.07367272454942508</v>
+        <v>0.1189884402560892</v>
       </c>
       <c r="D12">
-        <v>0.1371121303966021</v>
+        <v>0.1363172029511048</v>
       </c>
       <c r="E12">
-        <v>0.1223196930645365</v>
+        <v>0.06605895902250936</v>
       </c>
       <c r="F12">
-        <v>1.712566634326478</v>
+        <v>0.8991663581332006</v>
       </c>
       <c r="G12">
         <v>0</v>
       </c>
       <c r="H12">
-        <v>0.07973214163530429</v>
+        <v>0.0267246236506935</v>
       </c>
       <c r="I12">
-        <v>1.063015125392603</v>
+        <v>0.4519913521651659</v>
       </c>
       <c r="J12">
-        <v>0.147448408436226</v>
+        <v>0.05523291213162551</v>
       </c>
       <c r="K12">
-        <v>0.6229236479439351</v>
+        <v>1.561713080988454</v>
       </c>
       <c r="L12">
-        <v>0.3246081869732222</v>
+        <v>0.3249971239777807</v>
       </c>
       <c r="M12">
         <v>0</v>
       </c>
       <c r="N12">
-        <v>1.950497975728785</v>
+        <v>0.7798780105367964</v>
       </c>
       <c r="O12">
-        <v>4.420407480748366</v>
+        <v>2.147818914161036</v>
       </c>
     </row>
     <row r="13" spans="1:15">
@@ -938,46 +938,46 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>0.9086075759588539</v>
+        <v>1.764191362195731</v>
       </c>
       <c r="C13">
-        <v>0.07352882250290804</v>
+        <v>0.1185448677572083</v>
       </c>
       <c r="D13">
-        <v>0.136964922255487</v>
+        <v>0.1356896296582022</v>
       </c>
       <c r="E13">
-        <v>0.1223029414476464</v>
+        <v>0.06588652322054145</v>
       </c>
       <c r="F13">
-        <v>1.712677008551012</v>
+        <v>0.8974836403164375</v>
       </c>
       <c r="G13">
         <v>0</v>
       </c>
       <c r="H13">
-        <v>0.07973214163530429</v>
+        <v>0.02672462365057982</v>
       </c>
       <c r="I13">
-        <v>1.063321534870624</v>
+        <v>0.4518705761776758</v>
       </c>
       <c r="J13">
-        <v>0.1474840281777077</v>
+        <v>0.0552335424769872</v>
       </c>
       <c r="K13">
-        <v>0.62051700743109</v>
+        <v>1.553289825676018</v>
       </c>
       <c r="L13">
-        <v>0.3242759367404346</v>
+        <v>0.3235121336379336</v>
       </c>
       <c r="M13">
         <v>0</v>
       </c>
       <c r="N13">
-        <v>1.951476776734062</v>
+        <v>0.7821603943546735</v>
       </c>
       <c r="O13">
-        <v>4.42116622605721</v>
+        <v>2.145071549246438</v>
       </c>
     </row>
     <row r="14" spans="1:15">
@@ -985,46 +985,46 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>0.9001282654493821</v>
+        <v>1.733390855822535</v>
       </c>
       <c r="C14">
-        <v>0.0730591075221696</v>
+        <v>0.1170986860941952</v>
       </c>
       <c r="D14">
-        <v>0.1364859221597072</v>
+        <v>0.1336451785223005</v>
       </c>
       <c r="E14">
-        <v>0.1222492929233105</v>
+        <v>0.06532595723603052</v>
       </c>
       <c r="F14">
-        <v>1.71305532017341</v>
+        <v>0.8920388992330999</v>
       </c>
       <c r="G14">
         <v>0</v>
       </c>
       <c r="H14">
-        <v>0.07973214163530429</v>
+        <v>0.02672462365057982</v>
       </c>
       <c r="I14">
-        <v>1.064331687948673</v>
+        <v>0.4515011558759454</v>
       </c>
       <c r="J14">
-        <v>0.1476012796947046</v>
+        <v>0.05523749777437459</v>
       </c>
       <c r="K14">
-        <v>0.6126704478226088</v>
+        <v>1.525835075007819</v>
       </c>
       <c r="L14">
-        <v>0.3231952746904341</v>
+        <v>0.3186763403288637</v>
       </c>
       <c r="M14">
         <v>0</v>
       </c>
       <c r="N14">
-        <v>1.954683514660035</v>
+        <v>0.789636872745076</v>
       </c>
       <c r="O14">
-        <v>4.42368912672697</v>
+        <v>2.136228059033812</v>
       </c>
     </row>
     <row r="15" spans="1:15">
@@ -1032,46 +1032,46 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>0.8949384551848141</v>
+        <v>1.71454008285221</v>
       </c>
       <c r="C15">
-        <v>0.07277107185009868</v>
+        <v>0.1162131539563518</v>
       </c>
       <c r="D15">
-        <v>0.1361933501617898</v>
+        <v>0.1323945662055763</v>
       </c>
       <c r="E15">
-        <v>0.122217186883482</v>
+        <v>0.06498395550808311</v>
       </c>
       <c r="F15">
-        <v>1.713301156931479</v>
+        <v>0.8887365735419905</v>
       </c>
       <c r="G15">
         <v>0</v>
       </c>
       <c r="H15">
-        <v>0.07973214163530429</v>
+        <v>0.02672462365057982</v>
       </c>
       <c r="I15">
-        <v>1.064958801624407</v>
+        <v>0.4512935259789757</v>
       </c>
       <c r="J15">
-        <v>0.1476739358267487</v>
+        <v>0.05524137213398106</v>
       </c>
       <c r="K15">
-        <v>0.6078657664536991</v>
+        <v>1.509029765343797</v>
       </c>
       <c r="L15">
-        <v>0.3225355522062898</v>
+        <v>0.3157196557093016</v>
       </c>
       <c r="M15">
         <v>0</v>
       </c>
       <c r="N15">
-        <v>1.956658995630477</v>
+        <v>0.7942417508616373</v>
       </c>
       <c r="O15">
-        <v>4.425271726103773</v>
+        <v>2.130899748205195</v>
       </c>
     </row>
     <row r="16" spans="1:15">
@@ -1079,46 +1079,46 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>0.8652598680455412</v>
+        <v>1.606738921374443</v>
       </c>
       <c r="C16">
-        <v>0.07111554112843521</v>
+        <v>0.1111424538260337</v>
       </c>
       <c r="D16">
-        <v>0.1345295045895085</v>
+        <v>0.1252526904267484</v>
       </c>
       <c r="E16">
-        <v>0.1220447979175852</v>
+        <v>0.06304452852085163</v>
       </c>
       <c r="F16">
-        <v>1.714926375845977</v>
+        <v>0.8703025934333795</v>
       </c>
       <c r="G16">
         <v>0</v>
       </c>
       <c r="H16">
-        <v>0.07973214163530429</v>
+        <v>0.02672462365057982</v>
       </c>
       <c r="I16">
-        <v>1.068680817716825</v>
+        <v>0.4503837773094972</v>
       </c>
       <c r="J16">
-        <v>0.1481031280300371</v>
+        <v>0.05528549624807511</v>
       </c>
       <c r="K16">
-        <v>0.5803565373995241</v>
+        <v>1.41289169715921</v>
       </c>
       <c r="L16">
-        <v>0.3187889940111859</v>
+        <v>0.2988559206323487</v>
       </c>
       <c r="M16">
         <v>0</v>
       </c>
       <c r="N16">
-        <v>1.968152291344629</v>
+        <v>0.8210129346751645</v>
       </c>
       <c r="O16">
-        <v>4.434912178916392</v>
+        <v>2.101692345627868</v>
       </c>
     </row>
     <row r="17" spans="1:15">
@@ -1126,46 +1126,46 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>0.8471091189436208</v>
+        <v>1.540795019657111</v>
       </c>
       <c r="C17">
-        <v>0.07009555834892467</v>
+        <v>0.1080346041121061</v>
       </c>
       <c r="D17">
-        <v>0.1335202394497941</v>
+        <v>0.1208927658447863</v>
       </c>
       <c r="E17">
-        <v>0.121949415847002</v>
+        <v>0.06187255529421165</v>
       </c>
       <c r="F17">
-        <v>1.716116691881311</v>
+        <v>0.8594193024569492</v>
       </c>
       <c r="G17">
         <v>0</v>
       </c>
       <c r="H17">
-        <v>0.07973214163530429</v>
+        <v>0.02672462365057982</v>
       </c>
       <c r="I17">
-        <v>1.071078683646231</v>
+        <v>0.4500694715039373</v>
       </c>
       <c r="J17">
-        <v>0.1483778852201816</v>
+        <v>0.05533177721866878</v>
       </c>
       <c r="K17">
-        <v>0.5635028854035511</v>
+        <v>1.354051771942437</v>
       </c>
       <c r="L17">
-        <v>0.3165210964287866</v>
+        <v>0.2885790277125722</v>
       </c>
       <c r="M17">
         <v>0</v>
       </c>
       <c r="N17">
-        <v>1.975357089230475</v>
+        <v>0.8377715469770681</v>
       </c>
       <c r="O17">
-        <v>4.441336291064658</v>
+        <v>2.084925978180365</v>
       </c>
     </row>
     <row r="18" spans="1:15">
@@ -1173,46 +1173,46 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>0.8366901730229301</v>
+        <v>1.502930451129316</v>
       </c>
       <c r="C18">
-        <v>0.06950729270347722</v>
+        <v>0.1062478548567043</v>
       </c>
       <c r="D18">
-        <v>0.1329439680076518</v>
+        <v>0.1183925959353473</v>
       </c>
       <c r="E18">
-        <v>0.1218983761833776</v>
+        <v>0.06120483797170806</v>
       </c>
       <c r="F18">
-        <v>1.716872435212309</v>
+        <v>0.8533111285966015</v>
       </c>
       <c r="G18">
         <v>0</v>
       </c>
       <c r="H18">
-        <v>0.07973214163530429</v>
+        <v>0.02672462365057982</v>
       </c>
       <c r="I18">
-        <v>1.072499986548291</v>
+        <v>0.4499759061741067</v>
       </c>
       <c r="J18">
-        <v>0.1485401359223673</v>
+        <v>0.05536532190602728</v>
       </c>
       <c r="K18">
-        <v>0.5538175471358215</v>
+        <v>1.320255026795564</v>
       </c>
       <c r="L18">
-        <v>0.3152279142669414</v>
+        <v>0.2826921176651496</v>
       </c>
       <c r="M18">
         <v>0</v>
       </c>
       <c r="N18">
-        <v>1.979557708396453</v>
+        <v>0.8475315959064522</v>
       </c>
       <c r="O18">
-        <v>4.445218815248211</v>
+        <v>2.07569289691142</v>
       </c>
     </row>
     <row r="19" spans="1:15">
@@ -1220,46 +1220,46 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>0.8331661093080243</v>
+        <v>1.490120822600886</v>
       </c>
       <c r="C19">
-        <v>0.06930784216150698</v>
+        <v>0.105643007484872</v>
       </c>
       <c r="D19">
-        <v>0.1327495813106481</v>
+        <v>0.1175473476826028</v>
       </c>
       <c r="E19">
-        <v>0.1218817522960265</v>
+        <v>0.06097983859167044</v>
       </c>
       <c r="F19">
-        <v>1.717140535827468</v>
+        <v>0.8512686076021225</v>
       </c>
       <c r="G19">
         <v>0</v>
       </c>
       <c r="H19">
-        <v>0.07973214163530429</v>
+        <v>0.02672462365057982</v>
       </c>
       <c r="I19">
-        <v>1.072988450718302</v>
+        <v>0.4499589850880632</v>
       </c>
       <c r="J19">
-        <v>0.1485957961275446</v>
+        <v>0.05537785638484038</v>
       </c>
       <c r="K19">
-        <v>0.5505397274983466</v>
+        <v>1.308819617363667</v>
       </c>
       <c r="L19">
-        <v>0.3147920019942916</v>
+        <v>0.2807029486076118</v>
       </c>
       <c r="M19">
         <v>0</v>
       </c>
       <c r="N19">
-        <v>1.980989689031119</v>
+        <v>0.850856738146704</v>
       </c>
       <c r="O19">
-        <v>4.446565593524383</v>
+        <v>2.072636062604772</v>
       </c>
     </row>
     <row r="20" spans="1:15">
@@ -1267,46 +1267,46 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>0.8490391416893317</v>
+        <v>1.547808068678307</v>
       </c>
       <c r="C20">
-        <v>0.07020430285152202</v>
+        <v>0.1083653513759231</v>
       </c>
       <c r="D20">
-        <v>0.1336272400613865</v>
+        <v>0.1213560995492031</v>
       </c>
       <c r="E20">
-        <v>0.1219591741272623</v>
+        <v>0.06199665069385674</v>
       </c>
       <c r="F20">
-        <v>1.715982623160357</v>
+        <v>0.8605620521039512</v>
       </c>
       <c r="G20">
         <v>0</v>
       </c>
       <c r="H20">
-        <v>0.07973214163530429</v>
+        <v>0.02672462365057982</v>
       </c>
       <c r="I20">
-        <v>1.070819068654519</v>
+        <v>0.4500938506903651</v>
       </c>
       <c r="J20">
-        <v>0.1483482004634951</v>
+        <v>0.05532613080492865</v>
       </c>
       <c r="K20">
-        <v>0.5652961171444133</v>
+        <v>1.360310485508734</v>
       </c>
       <c r="L20">
-        <v>0.3167613544371761</v>
+        <v>0.2896705038219523</v>
       </c>
       <c r="M20">
         <v>0</v>
       </c>
       <c r="N20">
-        <v>1.974584267353027</v>
+        <v>0.8359749962881127</v>
       </c>
       <c r="O20">
-        <v>4.440633025860592</v>
+        <v>2.086668021831485</v>
       </c>
     </row>
     <row r="21" spans="1:15">
@@ -1314,46 +1314,46 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>0.9026180098211114</v>
+        <v>1.742434468468332</v>
       </c>
       <c r="C21">
-        <v>0.07319714127551435</v>
+        <v>0.1175234015586</v>
       </c>
       <c r="D21">
-        <v>0.1366264433845572</v>
+        <v>0.1342453328631876</v>
       </c>
       <c r="E21">
-        <v>0.1222648934590502</v>
+        <v>0.0654903243891134</v>
       </c>
       <c r="F21">
-        <v>1.712941260759251</v>
+        <v>0.8936313018997026</v>
       </c>
       <c r="G21">
         <v>0</v>
       </c>
       <c r="H21">
-        <v>0.07973214163530429</v>
+        <v>0.02672462365057982</v>
       </c>
       <c r="I21">
-        <v>1.064033238225079</v>
+        <v>0.4516057627859027</v>
       </c>
       <c r="J21">
-        <v>0.147566665851226</v>
+        <v>0.05523603269554656</v>
       </c>
       <c r="K21">
-        <v>0.6149748480657706</v>
+        <v>1.533896775764106</v>
       </c>
       <c r="L21">
-        <v>0.3235122301432654</v>
+        <v>0.3200956028592117</v>
       </c>
       <c r="M21">
         <v>0</v>
       </c>
       <c r="N21">
-        <v>1.953739271147358</v>
+        <v>0.787435559760838</v>
       </c>
       <c r="O21">
-        <v>4.422940327466222</v>
+        <v>2.138807071433376</v>
       </c>
     </row>
     <row r="22" spans="1:15">
@@ -1361,46 +1361,46 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>0.9378151957427292</v>
+        <v>1.870311709973407</v>
       </c>
       <c r="C22">
-        <v>0.07513875468755771</v>
+        <v>0.1235212831189614</v>
       </c>
       <c r="D22">
-        <v>0.1386237802673804</v>
+        <v>0.1427432134155424</v>
       </c>
       <c r="E22">
-        <v>0.1224985267142067</v>
+        <v>0.06783409529952777</v>
       </c>
       <c r="F22">
-        <v>1.71158526910807</v>
+        <v>0.9166962929093216</v>
       </c>
       <c r="G22">
         <v>0</v>
       </c>
       <c r="H22">
-        <v>0.07973214163530429</v>
+        <v>0.02672462365057982</v>
       </c>
       <c r="I22">
-        <v>1.059972802920917</v>
+        <v>0.4534221645940875</v>
       </c>
       <c r="J22">
-        <v>0.1470933285653508</v>
+        <v>0.05524175110804563</v>
       </c>
       <c r="K22">
-        <v>0.6475133061063048</v>
+        <v>1.647849587548336</v>
       </c>
       <c r="L22">
-        <v>0.3280235446549256</v>
+        <v>0.3402179644534442</v>
       </c>
       <c r="M22">
         <v>0</v>
       </c>
       <c r="N22">
-        <v>1.940619902947994</v>
+        <v>0.7568391819822011</v>
       </c>
       <c r="O22">
-        <v>4.413044662448925</v>
+        <v>2.176813195415946</v>
       </c>
     </row>
     <row r="23" spans="1:15">
@@ -1408,46 +1408,46 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>0.9190135728767928</v>
+        <v>1.801994064552616</v>
       </c>
       <c r="C23">
-        <v>0.07410380181411824</v>
+        <v>0.1203186764652315</v>
       </c>
       <c r="D23">
-        <v>0.137554385544064</v>
+        <v>0.1382006178561141</v>
       </c>
       <c r="E23">
-        <v>0.122370746791745</v>
+        <v>0.06657746252648877</v>
       </c>
       <c r="F23">
-        <v>1.712251256486269</v>
+        <v>0.9042480483599462</v>
       </c>
       <c r="G23">
         <v>0</v>
       </c>
       <c r="H23">
-        <v>0.07973214163530429</v>
+        <v>0.02672462365057982</v>
       </c>
       <c r="I23">
-        <v>1.062105692332565</v>
+        <v>0.4523743366105322</v>
       </c>
       <c r="J23">
-        <v>0.1473425373864004</v>
+        <v>0.05523264074843226</v>
       </c>
       <c r="K23">
-        <v>0.6301406870295807</v>
+        <v>1.586980121824013</v>
       </c>
       <c r="L23">
-        <v>0.325606739170837</v>
+        <v>0.3294553505156301</v>
       </c>
       <c r="M23">
         <v>0</v>
       </c>
       <c r="N23">
-        <v>1.947575839347238</v>
+        <v>0.773063419689465</v>
       </c>
       <c r="O23">
-        <v>4.418173707699594</v>
+        <v>2.156155181863653</v>
       </c>
     </row>
     <row r="24" spans="1:15">
@@ -1455,46 +1455,46 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>0.8481665280012294</v>
+        <v>1.54463732249792</v>
       </c>
       <c r="C24">
-        <v>0.07015514526635513</v>
+        <v>0.1082158206122443</v>
       </c>
       <c r="D24">
-        <v>0.1335788527191255</v>
+        <v>0.1211466064936388</v>
       </c>
       <c r="E24">
-        <v>0.1219547505803078</v>
+        <v>0.06194052831080654</v>
       </c>
       <c r="F24">
-        <v>1.716043013161709</v>
+        <v>0.8600449526973719</v>
       </c>
       <c r="G24">
         <v>0</v>
       </c>
       <c r="H24">
-        <v>0.07973214163530429</v>
+        <v>0.02672462365057982</v>
       </c>
       <c r="I24">
-        <v>1.070936307461103</v>
+        <v>0.4500825580201706</v>
       </c>
       <c r="J24">
-        <v>0.1483616075806005</v>
+        <v>0.05532866197274089</v>
       </c>
       <c r="K24">
-        <v>0.5644853844059128</v>
+        <v>1.357480825181256</v>
       </c>
       <c r="L24">
-        <v>0.3166527005693496</v>
+        <v>0.2891769810301099</v>
       </c>
       <c r="M24">
         <v>0</v>
       </c>
       <c r="N24">
-        <v>1.974933477945167</v>
+        <v>0.8367868271180168</v>
       </c>
       <c r="O24">
-        <v>4.440950382634668</v>
+        <v>2.085879181885275</v>
       </c>
     </row>
     <row r="25" spans="1:15">
@@ -1502,46 +1502,46 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>0.7725480598081447</v>
+        <v>1.269454332014419</v>
       </c>
       <c r="C25">
-        <v>0.06583483573536597</v>
+        <v>0.09518896177911529</v>
       </c>
       <c r="D25">
-        <v>0.1294526370642046</v>
+        <v>0.1030359090769366</v>
       </c>
       <c r="E25">
-        <v>0.1216522541747906</v>
+        <v>0.05718046396275156</v>
       </c>
       <c r="F25">
-        <v>1.722852358993542</v>
+        <v>0.8181083006248286</v>
       </c>
       <c r="G25">
         <v>0</v>
       </c>
       <c r="H25">
-        <v>0.07973214163530429</v>
+        <v>0.02672462365057982</v>
       </c>
       <c r="I25">
-        <v>1.082071969781506</v>
+        <v>0.4509183209480767</v>
       </c>
       <c r="J25">
-        <v>0.1496221594906757</v>
+        <v>0.05569547684420328</v>
       </c>
       <c r="K25">
-        <v>0.4939905093785342</v>
+        <v>1.111657000952391</v>
       </c>
       <c r="L25">
-        <v>0.3074250612130527</v>
+        <v>0.2466390764720501</v>
       </c>
       <c r="M25">
         <v>0</v>
       </c>
       <c r="N25">
-        <v>2.006607566224635</v>
+        <v>0.9101209973046283</v>
       </c>
       <c r="O25">
-        <v>4.472690388618958</v>
+        <v>2.025627817655703</v>
       </c>
     </row>
   </sheetData>
